--- a/dat/results.xlsx
+++ b/dat/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="simu-AUC" sheetId="1" r:id="rId1"/>
@@ -178,6 +178,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -187,23 +199,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,17 +511,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="5" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
@@ -538,24 +538,24 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="25" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -582,107 +582,107 @@
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C8" s="22">
+      <c r="C8" s="28">
         <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>0.1</v>
       </c>
       <c r="E8" s="12">
-        <v>0.265432098765432</v>
+        <v>0.45</v>
       </c>
       <c r="F8" s="12">
-        <v>0.50617283950617298</v>
+        <v>0.54</v>
       </c>
       <c r="G8" s="12">
-        <v>0.87654320987654299</v>
+        <v>0.41</v>
       </c>
       <c r="H8" s="13">
-        <v>0.432098765</v>
+        <v>0.44</v>
       </c>
       <c r="I8" s="13">
-        <v>0.66049380000000002</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J8" s="13">
-        <v>0.69135800000000003</v>
+        <v>0.49</v>
       </c>
       <c r="K8" s="19">
-        <v>0.82716049400000002</v>
+        <v>0.51</v>
       </c>
       <c r="L8" s="12">
-        <v>0.74691358024691401</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C9" s="23"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="4">
         <v>0.3</v>
       </c>
       <c r="E9" s="14">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F9" s="14">
-        <v>0.84567901234567899</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="14">
-        <v>0.938271604938272</v>
+        <v>0.74</v>
       </c>
       <c r="H9" s="15">
-        <v>0.66049382700000003</v>
+        <v>0.76</v>
       </c>
       <c r="I9" s="15">
-        <v>0.69753089999999995</v>
+        <v>0.49</v>
       </c>
       <c r="J9" s="15">
-        <v>0.91358019999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K9" s="19">
-        <v>0.86419753099999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L9" s="14">
-        <v>0.97530864197530898</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C10" s="23"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="4">
         <v>0.5</v>
       </c>
       <c r="E10" s="14">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F10" s="14">
-        <v>0.91975308641975295</v>
+        <v>0.96</v>
       </c>
       <c r="G10" s="14">
-        <v>0.969135802469136</v>
+        <v>0.99</v>
       </c>
       <c r="H10" s="15">
         <v>1</v>
       </c>
       <c r="I10" s="15">
-        <v>0.81481479999999995</v>
+        <v>0.64</v>
       </c>
       <c r="J10" s="15">
-        <v>0.91358019999999995</v>
+        <v>0.61</v>
       </c>
       <c r="K10" s="19">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="L10" s="14">
-        <v>1</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C11" s="23"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="4">
         <v>0.7</v>
       </c>
       <c r="E11" s="14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F11" s="14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -691,20 +691,20 @@
         <v>1</v>
       </c>
       <c r="I11" s="15">
-        <v>0.96913579999999999</v>
+        <v>0.64</v>
       </c>
       <c r="J11" s="15">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="K11" s="19">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L11" s="14">
-        <v>1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C12" s="23"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="4">
         <v>1</v>
       </c>
@@ -721,20 +721,20 @@
         <v>1</v>
       </c>
       <c r="I12" s="15">
-        <v>0.98148150000000001</v>
+        <v>0.74</v>
       </c>
       <c r="J12" s="16">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="K12" s="19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L12" s="14">
-        <v>1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="24"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="1">
         <v>1.5</v>
       </c>
@@ -751,120 +751,120 @@
         <v>1</v>
       </c>
       <c r="I13" s="18">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="J13" s="18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K13" s="18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="L13" s="17">
-        <v>1</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C14" s="22">
+      <c r="C14" s="28">
         <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" s="12">
-        <v>0.43262411347517699</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="12">
-        <v>0.560283687943262</v>
+        <v>0.33</v>
       </c>
       <c r="G14" s="12">
-        <v>2.8368794326241099E-2</v>
+        <v>0.33</v>
       </c>
       <c r="H14" s="13">
-        <v>0.52836879400000003</v>
+        <v>0.41</v>
       </c>
       <c r="I14" s="13">
-        <v>0.42553190000000002</v>
+        <v>0.53</v>
       </c>
       <c r="J14" s="13">
-        <v>0.50709219999999999</v>
+        <v>0.54</v>
       </c>
       <c r="K14" s="19">
-        <v>0.48226950400000002</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L14" s="12">
-        <v>0.53191489361702105</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C15" s="23"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="4">
         <v>0.3</v>
       </c>
       <c r="E15" s="14">
-        <v>0.80851063829787195</v>
+        <v>0.68</v>
       </c>
       <c r="F15" s="14">
-        <v>0.90425531914893598</v>
+        <v>0.63</v>
       </c>
       <c r="G15" s="14">
-        <v>0.92553191489361697</v>
+        <v>0.66</v>
       </c>
       <c r="H15" s="15">
-        <v>0.95744680900000001</v>
+        <v>0.72</v>
       </c>
       <c r="I15" s="15">
-        <v>0.6134752</v>
+        <v>0.43</v>
       </c>
       <c r="J15" s="15">
-        <v>0.69503550000000003</v>
+        <v>0.52</v>
       </c>
       <c r="K15" s="19">
-        <v>0.65957446799999997</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L15" s="14">
-        <v>0.57092198581560305</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C16" s="23"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="4">
         <v>0.5</v>
       </c>
       <c r="E16" s="14">
-        <v>0.95744680851063801</v>
+        <v>0.9</v>
       </c>
       <c r="F16" s="14">
-        <v>0.80141843971631199</v>
+        <v>1</v>
       </c>
       <c r="G16" s="14">
-        <v>0.98936170212765995</v>
+        <v>1</v>
       </c>
       <c r="H16" s="15">
         <v>1</v>
       </c>
       <c r="I16" s="15">
-        <v>0.65248229999999996</v>
+        <v>0.66</v>
       </c>
       <c r="J16" s="15">
-        <v>0.69858160000000002</v>
+        <v>0.68</v>
       </c>
       <c r="K16" s="19">
-        <v>0.80496453899999998</v>
+        <v>0.64</v>
       </c>
       <c r="L16" s="14">
-        <v>0.72695035460992896</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C17" s="23"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="4">
         <v>0.7</v>
       </c>
       <c r="E17" s="14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F17" s="14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G17" s="14">
         <v>1</v>
@@ -873,20 +873,20 @@
         <v>1</v>
       </c>
       <c r="I17" s="15">
-        <v>0.76241130000000001</v>
+        <v>0.69</v>
       </c>
       <c r="J17" s="15">
-        <v>0.63120569999999998</v>
+        <v>0.7</v>
       </c>
       <c r="K17" s="19">
-        <v>0.812056738</v>
+        <v>0.67</v>
       </c>
       <c r="L17" s="14">
-        <v>0.78723404255319196</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C18" s="23"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="4">
         <v>1</v>
       </c>
@@ -903,20 +903,20 @@
         <v>1</v>
       </c>
       <c r="I18" s="15">
-        <v>0.78368789999999999</v>
+        <v>0.78</v>
       </c>
       <c r="J18" s="15">
-        <v>0.81205669999999996</v>
+        <v>0.8</v>
       </c>
       <c r="K18" s="19">
-        <v>0.97872340400000002</v>
+        <v>0.83</v>
       </c>
       <c r="L18" s="14">
-        <v>0.99290780141844004</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C19" s="24"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="1">
         <v>1.5</v>
       </c>
@@ -933,120 +933,120 @@
         <v>1</v>
       </c>
       <c r="I19" s="18">
-        <v>0.93617019999999995</v>
+        <v>0.74</v>
       </c>
       <c r="J19" s="18">
-        <v>0.98581560000000001</v>
+        <v>0.77</v>
       </c>
       <c r="K19" s="18">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="L19" s="17">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C20" s="22">
+      <c r="C20" s="28">
         <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>0.1</v>
       </c>
       <c r="E20" s="12">
-        <v>0.59278350515463896</v>
+        <v>0.7</v>
       </c>
       <c r="F20" s="12">
-        <v>0.42268041237113402</v>
+        <v>0.63</v>
       </c>
       <c r="G20" s="12">
-        <v>0.57731958762886604</v>
+        <v>0.6</v>
       </c>
       <c r="H20" s="13">
-        <v>0.39518900299999998</v>
+        <v>0.69</v>
       </c>
       <c r="I20" s="13">
-        <v>0.60309279999999998</v>
+        <v>0.33</v>
       </c>
       <c r="J20" s="13">
-        <v>0.64261170000000001</v>
+        <v>0.43</v>
       </c>
       <c r="K20" s="19">
-        <v>0.62199312699999998</v>
+        <v>0.48</v>
       </c>
       <c r="L20" s="12">
-        <v>0.51374570446735401</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C21" s="23"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="4">
         <v>0.3</v>
       </c>
       <c r="E21" s="14">
-        <v>0.69243986254295498</v>
+        <v>0.77</v>
       </c>
       <c r="F21" s="14">
-        <v>0.40721649484536099</v>
+        <v>0.75</v>
       </c>
       <c r="G21" s="14">
-        <v>0.56357388316151202</v>
+        <v>0.92</v>
       </c>
       <c r="H21" s="15">
-        <v>0.97250859099999998</v>
+        <v>0.9</v>
       </c>
       <c r="I21" s="15">
-        <v>0.61855669999999996</v>
+        <v>0.54</v>
       </c>
       <c r="J21" s="15">
-        <v>0.6958763</v>
+        <v>0.63</v>
       </c>
       <c r="K21" s="19">
-        <v>0.76288659800000003</v>
+        <v>0.7</v>
       </c>
       <c r="L21" s="14">
-        <v>0.536082474226804</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C22" s="23"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4">
         <v>0.5</v>
       </c>
       <c r="E22" s="14">
-        <v>0.87285223367697595</v>
+        <v>0.69</v>
       </c>
       <c r="F22" s="14">
-        <v>0.97079037800687296</v>
+        <v>0.91</v>
       </c>
       <c r="G22" s="14">
         <v>1</v>
       </c>
       <c r="H22" s="15">
-        <v>0.99656357399999995</v>
+        <v>1</v>
       </c>
       <c r="I22" s="15">
-        <v>0.65979379999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J22" s="15">
-        <v>0.66838489999999995</v>
+        <v>0.7</v>
       </c>
       <c r="K22" s="19">
-        <v>0.59278350499999999</v>
+        <v>0.81</v>
       </c>
       <c r="L22" s="14">
-        <v>0.780068728522337</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C23" s="23"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="4">
         <v>0.7</v>
       </c>
       <c r="E23" s="14">
-        <v>0.98625429553264599</v>
+        <v>0.97</v>
       </c>
       <c r="F23" s="14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -1055,20 +1055,20 @@
         <v>1</v>
       </c>
       <c r="I23" s="15">
-        <v>0.70962199999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J23" s="15">
-        <v>0.73024049999999996</v>
+        <v>0.74</v>
       </c>
       <c r="K23" s="19">
-        <v>0.79381443299999999</v>
+        <v>0.83</v>
       </c>
       <c r="L23" s="14">
-        <v>0.78350515463917503</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C24" s="23"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="4">
         <v>1</v>
       </c>
@@ -1085,20 +1085,20 @@
         <v>1</v>
       </c>
       <c r="I24" s="15">
-        <v>0.76460479999999997</v>
+        <v>0.95</v>
       </c>
       <c r="J24" s="15">
-        <v>0.86597939999999995</v>
+        <v>0.94</v>
       </c>
       <c r="K24" s="19">
-        <v>0.98109965600000004</v>
+        <v>0.98</v>
       </c>
       <c r="L24" s="14">
-        <v>0.98969072164948502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C25" s="24"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="1">
         <v>1.5</v>
       </c>
@@ -1115,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="I25" s="18">
-        <v>0.94845360000000001</v>
+        <v>0.93</v>
       </c>
       <c r="J25" s="18">
-        <v>0.98281790000000002</v>
+        <v>0.98</v>
       </c>
       <c r="K25" s="18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L25" s="17">
-        <v>0.96048109965635697</v>
+        <v>1</v>
       </c>
       <c r="R25" s="20"/>
       <c r="S25" s="20"/>
@@ -1176,17 +1176,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="31" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -1206,25 +1206,25 @@
       <c r="P7" s="26"/>
     </row>
     <row r="8" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
     </row>
     <row r="9" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="7"/>
       <c r="I9" s="1">
         <v>2</v>
@@ -1252,7 +1252,7 @@
       </c>
     </row>
     <row r="10" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F10" s="27">
+      <c r="F10" s="31">
         <v>30</v>
       </c>
       <c r="G10" s="2">
@@ -1273,26 +1273,18 @@
       <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="32">
-        <v>200</v>
-      </c>
-      <c r="N10" s="32">
-        <v>200</v>
-      </c>
-      <c r="O10" s="32">
-        <v>200</v>
-      </c>
-      <c r="P10" s="32">
-        <v>200</v>
-      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F11" s="25"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="4">
         <v>0.1</v>
       </c>
       <c r="H11" s="4">
-        <v>192.3</v>
+        <v>263.2</v>
       </c>
       <c r="I11" s="5">
         <v>196.1</v>
@@ -1306,26 +1298,18 @@
       <c r="L11" s="5">
         <v>227.3</v>
       </c>
-      <c r="M11" s="32">
-        <v>222.222222222222</v>
-      </c>
-      <c r="N11" s="32">
-        <v>196.07843137254901</v>
-      </c>
-      <c r="O11" s="32">
-        <v>188.67924528301899</v>
-      </c>
-      <c r="P11" s="32">
-        <v>227.272727272727</v>
-      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F12" s="25"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="4">
         <v>0.3</v>
       </c>
       <c r="H12" s="4">
-        <v>161.30000000000001</v>
+        <v>263.2</v>
       </c>
       <c r="I12" s="5">
         <v>147.1</v>
@@ -1339,26 +1323,18 @@
       <c r="L12" s="5">
         <v>192.3</v>
       </c>
-      <c r="M12" s="32">
-        <v>232.55813953488399</v>
-      </c>
-      <c r="N12" s="32">
-        <v>200</v>
-      </c>
-      <c r="O12" s="32">
-        <v>232.55813953488399</v>
-      </c>
-      <c r="P12" s="32">
-        <v>256.41025641025601</v>
-      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F13" s="25"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="4">
         <v>0.5</v>
       </c>
       <c r="H13" s="4">
-        <v>163.9</v>
+        <v>227.3</v>
       </c>
       <c r="I13" s="5">
         <v>144.9</v>
@@ -1372,26 +1348,18 @@
       <c r="L13" s="5">
         <v>151.5</v>
       </c>
-      <c r="M13" s="32">
-        <v>196.07843137254901</v>
-      </c>
-      <c r="N13" s="32">
-        <v>156.25</v>
-      </c>
-      <c r="O13" s="32">
-        <v>178.57142857142901</v>
-      </c>
-      <c r="P13" s="32">
-        <v>200</v>
-      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F14" s="25"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="4">
         <v>0.7</v>
       </c>
       <c r="H14" s="4">
-        <v>97.1</v>
+        <v>142.9</v>
       </c>
       <c r="I14" s="5">
         <v>113.6</v>
@@ -1405,26 +1373,18 @@
       <c r="L14" s="5">
         <v>105.3</v>
       </c>
-      <c r="M14" s="32">
-        <v>161.29032258064501</v>
-      </c>
-      <c r="N14" s="32">
-        <v>138.888888888889</v>
-      </c>
-      <c r="O14" s="32">
-        <v>142.857142857143</v>
-      </c>
-      <c r="P14" s="32">
-        <v>144.92753623188401</v>
-      </c>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F15" s="25"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="4">
         <v>1</v>
       </c>
       <c r="H15" s="4">
-        <v>54.3</v>
+        <v>73.5</v>
       </c>
       <c r="I15" s="5">
         <v>90.9</v>
@@ -1438,30 +1398,22 @@
       <c r="L15" s="5">
         <v>71.400000000000006</v>
       </c>
-      <c r="M15" s="32">
-        <v>158.73015873015899</v>
-      </c>
-      <c r="N15" s="32">
-        <v>119.04761904761899</v>
-      </c>
-      <c r="O15" s="32">
-        <v>112.359550561798</v>
-      </c>
-      <c r="P15" s="32">
-        <v>120.481927710843</v>
-      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
     </row>
     <row r="16" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F16" s="28"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="1">
         <v>1.5</v>
       </c>
       <c r="H16" s="1">
-        <v>20.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I16" s="6">
         <v>31.7</v>
@@ -1475,25 +1427,17 @@
       <c r="L16" s="6">
         <v>25.9</v>
       </c>
-      <c r="M16" s="32">
-        <v>87.719298245613999</v>
-      </c>
-      <c r="N16" s="32">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="O16" s="32">
-        <v>70.921985815602795</v>
-      </c>
-      <c r="P16" s="32">
-        <v>70.921985815602795</v>
-      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
     </row>
     <row r="17" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F17" s="27">
+      <c r="F17" s="31">
         <v>50</v>
       </c>
       <c r="G17" s="2">
@@ -1514,30 +1458,22 @@
       <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="29">
-        <v>200</v>
-      </c>
-      <c r="N17" s="29">
-        <v>200</v>
-      </c>
-      <c r="O17" s="29">
-        <v>200</v>
-      </c>
-      <c r="P17" s="29">
-        <v>200</v>
-      </c>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
     </row>
     <row r="18" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F18" s="25"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="4">
         <v>0.1</v>
       </c>
       <c r="H18" s="4">
-        <v>169.5</v>
+        <v>250</v>
       </c>
       <c r="I18" s="5">
         <v>256.39999999999998</v>
@@ -1551,26 +1487,18 @@
       <c r="L18" s="5">
         <v>277.8</v>
       </c>
-      <c r="M18" s="30">
-        <v>188.67924529999999</v>
-      </c>
-      <c r="N18" s="30">
-        <v>181.81818179999999</v>
-      </c>
-      <c r="O18" s="30">
-        <v>158.7301587</v>
-      </c>
-      <c r="P18" s="30">
-        <v>147.05882349999999</v>
-      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F19" s="25"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="4">
         <v>0.3</v>
       </c>
       <c r="H19" s="4">
-        <v>135.1</v>
+        <v>285.7</v>
       </c>
       <c r="I19" s="5">
         <v>222.2</v>
@@ -1584,26 +1512,18 @@
       <c r="L19" s="5">
         <v>263.2</v>
       </c>
-      <c r="M19" s="30">
-        <v>222.2222222</v>
-      </c>
-      <c r="N19" s="30">
-        <v>204.0816327</v>
-      </c>
-      <c r="O19" s="30">
-        <v>200</v>
-      </c>
-      <c r="P19" s="30">
-        <v>169.4915254</v>
-      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F20" s="25"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="4">
         <v>0.5</v>
       </c>
       <c r="H20" s="4">
-        <v>151.5</v>
+        <v>166.7</v>
       </c>
       <c r="I20" s="5">
         <v>196.1</v>
@@ -1617,26 +1537,18 @@
       <c r="L20" s="5">
         <v>166.7</v>
       </c>
-      <c r="M20" s="30">
-        <v>181.81818179999999</v>
-      </c>
-      <c r="N20" s="30">
-        <v>172.41379309999999</v>
-      </c>
-      <c r="O20" s="30">
-        <v>166.66666670000001</v>
-      </c>
-      <c r="P20" s="30">
-        <v>166.66666670000001</v>
-      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F21" s="25"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="4">
         <v>0.7</v>
       </c>
       <c r="H21" s="4">
-        <v>112.4</v>
+        <v>142.9</v>
       </c>
       <c r="I21" s="5">
         <v>153.80000000000001</v>
@@ -1650,26 +1562,18 @@
       <c r="L21" s="5">
         <v>156.30000000000001</v>
       </c>
-      <c r="M21" s="30">
-        <v>158.7301587</v>
-      </c>
-      <c r="N21" s="30">
-        <v>128.20512819999999</v>
-      </c>
-      <c r="O21" s="30">
-        <v>126.5822785</v>
-      </c>
-      <c r="P21" s="30">
-        <v>109.8901099</v>
-      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F22" s="25"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="4">
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>66.2</v>
+        <v>69</v>
       </c>
       <c r="I22" s="5">
         <v>117.6</v>
@@ -1683,26 +1587,18 @@
       <c r="L22" s="5">
         <v>114.9</v>
       </c>
-      <c r="M22" s="30">
-        <v>120.4819277</v>
-      </c>
-      <c r="N22" s="30">
-        <v>119.047619</v>
-      </c>
-      <c r="O22" s="30">
-        <v>103.0927835</v>
-      </c>
-      <c r="P22" s="30">
-        <v>90.090090090000004</v>
-      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F23" s="28"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="1">
         <v>1.5</v>
       </c>
       <c r="H23" s="1">
-        <v>27.2</v>
+        <v>42.6</v>
       </c>
       <c r="I23" s="6">
         <v>43.9</v>
@@ -1716,21 +1612,13 @@
       <c r="L23" s="6">
         <v>38.200000000000003</v>
       </c>
-      <c r="M23" s="31">
-        <v>74.074074069999995</v>
-      </c>
-      <c r="N23" s="31">
-        <v>64.516129030000002</v>
-      </c>
-      <c r="O23" s="31">
-        <v>57.47126437</v>
-      </c>
-      <c r="P23" s="31">
-        <v>43.103448280000002</v>
-      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
     </row>
     <row r="24" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F24" s="27">
+      <c r="F24" s="31">
         <v>100</v>
       </c>
       <c r="G24" s="2">
@@ -1751,26 +1639,18 @@
       <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="10">
-        <v>200</v>
-      </c>
-      <c r="N24" s="10">
-        <v>200</v>
-      </c>
-      <c r="O24" s="10">
-        <v>200</v>
-      </c>
-      <c r="P24" s="10">
-        <v>200</v>
-      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F25" s="25"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="4">
         <v>0.1</v>
       </c>
       <c r="H25" s="4">
-        <v>322.60000000000002</v>
+        <v>285.7</v>
       </c>
       <c r="I25" s="5">
         <v>196.1</v>
@@ -1784,26 +1664,18 @@
       <c r="L25" s="5">
         <v>208.3</v>
       </c>
-      <c r="M25" s="10">
-        <v>161.2903226</v>
-      </c>
-      <c r="N25" s="10">
-        <v>212.76595739999999</v>
-      </c>
-      <c r="O25" s="10">
-        <v>285.7142857</v>
-      </c>
-      <c r="P25" s="10">
-        <v>222.2222222</v>
-      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F26" s="25"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="4">
         <v>0.3</v>
       </c>
       <c r="H26" s="4">
-        <v>212.8</v>
+        <v>227.3</v>
       </c>
       <c r="I26" s="5">
         <v>172.4</v>
@@ -1817,26 +1689,18 @@
       <c r="L26" s="5">
         <v>158.69999999999999</v>
       </c>
-      <c r="M26" s="10">
-        <v>200</v>
-      </c>
-      <c r="N26" s="10">
-        <v>196.0784314</v>
-      </c>
-      <c r="O26" s="10">
-        <v>250</v>
-      </c>
-      <c r="P26" s="10">
-        <v>204.0816327</v>
-      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F27" s="25"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="4">
         <v>0.5</v>
       </c>
       <c r="H27" s="4">
-        <v>196.1</v>
+        <v>200</v>
       </c>
       <c r="I27" s="5">
         <v>172.4</v>
@@ -1850,26 +1714,18 @@
       <c r="L27" s="5">
         <v>151.5</v>
       </c>
-      <c r="M27" s="10">
-        <v>181.81818179999999</v>
-      </c>
-      <c r="N27" s="10">
-        <v>192.30769230000001</v>
-      </c>
-      <c r="O27" s="10">
-        <v>212.76595739999999</v>
-      </c>
-      <c r="P27" s="10">
-        <v>156.25</v>
-      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F28" s="25"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="4">
         <v>0.7</v>
       </c>
       <c r="H28" s="4">
-        <v>212.8</v>
+        <v>196.1</v>
       </c>
       <c r="I28" s="5">
         <v>172.4</v>
@@ -1883,26 +1739,18 @@
       <c r="L28" s="5">
         <v>185.2</v>
       </c>
-      <c r="M28" s="10">
-        <v>204.0816327</v>
-      </c>
-      <c r="N28" s="10">
-        <v>232.55813950000001</v>
-      </c>
-      <c r="O28" s="10">
-        <v>217.3913043</v>
-      </c>
-      <c r="P28" s="10">
-        <v>169.4915254</v>
-      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F29" s="25"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>135.1</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="I29" s="5">
         <v>133.30000000000001</v>
@@ -1916,26 +1764,18 @@
       <c r="L29" s="5">
         <v>126.6</v>
       </c>
-      <c r="M29" s="10">
-        <v>153.8461538</v>
-      </c>
-      <c r="N29" s="10">
-        <v>196.0784314</v>
-      </c>
-      <c r="O29" s="10">
-        <v>185.18518520000001</v>
-      </c>
-      <c r="P29" s="10">
-        <v>156.25</v>
-      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F30" s="28"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="1">
         <v>1.5</v>
       </c>
       <c r="H30" s="1">
-        <v>64.099999999999994</v>
+        <v>59.5</v>
       </c>
       <c r="I30" s="6">
         <v>62.1</v>
@@ -1949,30 +1789,22 @@
       <c r="L30" s="6">
         <v>55.2</v>
       </c>
-      <c r="M30" s="11">
-        <v>129.87012989999999</v>
-      </c>
-      <c r="N30" s="11">
-        <v>125</v>
-      </c>
-      <c r="O30" s="11">
-        <v>126.5822785</v>
-      </c>
-      <c r="P30" s="11">
-        <v>114.9425287</v>
-      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="M7:P7"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="F10:F16"/>
     <mergeCell ref="F17:F23"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1984,16 +1816,16 @@
   <dimension ref="E7:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="28" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="26" t="s">
@@ -2010,24 +1842,24 @@
       <c r="N7" s="26"/>
     </row>
     <row r="8" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -2054,74 +1886,74 @@
       </c>
     </row>
     <row r="10" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E10" s="22">
+      <c r="E10" s="28">
         <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0.1</v>
       </c>
       <c r="G10" s="13">
-        <v>0.47619047599999997</v>
+        <v>0.1</v>
       </c>
       <c r="H10" s="13">
-        <v>0.571428571</v>
+        <v>0.1</v>
       </c>
       <c r="I10" s="13">
-        <v>0.30952381000000001</v>
+        <v>0.21</v>
       </c>
       <c r="J10" s="13">
-        <v>0.14285714299999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K10" s="13">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="L10" s="13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="M10" s="13">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N10" s="12">
-        <v>0.97619047619047605</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E11" s="23"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="4">
         <v>0.3</v>
       </c>
       <c r="G11" s="15">
-        <v>0.97619047599999997</v>
+        <v>0.64</v>
       </c>
       <c r="H11" s="15">
-        <v>0.95238095199999995</v>
+        <v>0.86</v>
       </c>
       <c r="I11" s="15">
-        <v>0.95238095199999995</v>
+        <v>1</v>
       </c>
       <c r="J11" s="15">
         <v>1</v>
       </c>
       <c r="K11" s="15">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L11" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="15">
-        <v>0.95238095199999995</v>
+        <v>0.71</v>
       </c>
       <c r="N11" s="14">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E12" s="23"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="4">
         <v>0.5</v>
       </c>
       <c r="G12" s="15">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="H12" s="15">
         <v>1</v>
@@ -2133,20 +1965,20 @@
         <v>1</v>
       </c>
       <c r="K12" s="15">
-        <v>0.95238095199999995</v>
+        <v>0.74</v>
       </c>
       <c r="L12" s="15">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="M12" s="15">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="N12" s="14">
-        <v>1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E13" s="23"/>
+      <c r="E13" s="29"/>
       <c r="F13" s="4">
         <v>0.7</v>
       </c>
@@ -2163,20 +1995,20 @@
         <v>1</v>
       </c>
       <c r="K13" s="15">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="L13" s="15">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="M13" s="15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="N13" s="14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E14" s="23"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="4">
         <v>1</v>
       </c>
@@ -2193,20 +2025,20 @@
         <v>1</v>
       </c>
       <c r="K14" s="15">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="L14" s="15">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="M14" s="15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="N14" s="14">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E15" s="24"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="1">
         <v>1.5</v>
       </c>
@@ -2223,90 +2055,90 @@
         <v>1</v>
       </c>
       <c r="K15" s="18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="L15" s="18">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="M15" s="18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="N15" s="17">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E16" s="22">
+      <c r="E16" s="28">
         <v>3</v>
       </c>
       <c r="F16" s="2">
         <v>0.1</v>
       </c>
       <c r="G16" s="13">
-        <v>9.5238094999999995E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H16" s="13">
-        <v>0.16666666699999999</v>
+        <v>0.26</v>
       </c>
       <c r="I16" s="13">
-        <v>0.40476190499999998</v>
+        <v>0.4</v>
       </c>
       <c r="J16" s="13">
-        <v>4.7619047999999997E-2</v>
+        <v>0.62</v>
       </c>
       <c r="K16" s="13">
-        <v>0.38095238100000001</v>
+        <v>0.48</v>
       </c>
       <c r="L16" s="13">
-        <v>0.28571428599999998</v>
+        <v>0.62</v>
       </c>
       <c r="M16" s="13">
-        <v>0.30952381000000001</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N16" s="12">
-        <v>0.57142857142857095</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E17" s="23"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="4">
         <v>0.3</v>
       </c>
       <c r="G17" s="15">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="H17" s="15">
-        <v>0.38095238100000001</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="15">
-        <v>0.52380952400000003</v>
+        <v>0.52</v>
       </c>
       <c r="J17" s="15">
-        <v>0.95238095199999995</v>
+        <v>1</v>
       </c>
       <c r="K17" s="15">
-        <v>0.64285714299999996</v>
+        <v>0.74</v>
       </c>
       <c r="L17" s="15">
-        <v>0.76190476200000001</v>
+        <v>0.71</v>
       </c>
       <c r="M17" s="15">
-        <v>0.69047619000000005</v>
+        <v>0.77</v>
       </c>
       <c r="N17" s="14">
-        <v>0.57142857142857095</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E18" s="23"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="4">
         <v>0.5</v>
       </c>
       <c r="G18" s="15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="H18" s="15">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="I18" s="15">
         <v>1</v>
@@ -2315,20 +2147,20 @@
         <v>1</v>
       </c>
       <c r="K18" s="15">
-        <v>0.76190476200000001</v>
+        <v>0.74</v>
       </c>
       <c r="L18" s="15">
-        <v>0.69047619000000005</v>
+        <v>0.67</v>
       </c>
       <c r="M18" s="15">
-        <v>0.64285714299999996</v>
+        <v>0.76</v>
       </c>
       <c r="N18" s="14">
-        <v>0.71428571428571397</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E19" s="23"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="4">
         <v>0.7</v>
       </c>
@@ -2345,20 +2177,20 @@
         <v>1</v>
       </c>
       <c r="K19" s="15">
-        <v>0.76190476200000001</v>
+        <v>0.76</v>
       </c>
       <c r="L19" s="15">
-        <v>0.76190476200000001</v>
+        <v>0.76</v>
       </c>
       <c r="M19" s="15">
-        <v>0.90476190499999998</v>
+        <v>0.76</v>
       </c>
       <c r="N19" s="14">
-        <v>0.90476190476190499</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="20" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E20" s="23"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="4">
         <v>1</v>
       </c>
@@ -2375,20 +2207,20 @@
         <v>1</v>
       </c>
       <c r="K20" s="15">
-        <v>0.80952380999999995</v>
+        <v>0.76</v>
       </c>
       <c r="L20" s="15">
-        <v>0.85714285700000004</v>
+        <v>0.81</v>
       </c>
       <c r="M20" s="15">
-        <v>0.90476190499999998</v>
+        <v>0.81</v>
       </c>
       <c r="N20" s="14">
-        <v>0.90476190476190499</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E21" s="24"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="1">
         <v>1.5</v>
       </c>
@@ -2405,87 +2237,87 @@
         <v>1</v>
       </c>
       <c r="K21" s="18">
-        <v>0.85714285700000004</v>
+        <v>0.79</v>
       </c>
       <c r="L21" s="18">
-        <v>0.90476190499999998</v>
+        <v>0.81</v>
       </c>
       <c r="M21" s="18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="N21" s="17">
-        <v>1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E22" s="22">
+      <c r="E22" s="28">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
       </c>
       <c r="G22" s="13">
-        <v>0.11904761899999999</v>
+        <v>0.21</v>
       </c>
       <c r="H22" s="13">
-        <v>0.38095238100000001</v>
+        <v>0.36</v>
       </c>
       <c r="I22" s="13">
-        <v>0.452380952</v>
+        <v>0.4</v>
       </c>
       <c r="J22" s="13">
-        <v>0.64285714299999996</v>
+        <v>0.45</v>
       </c>
       <c r="K22" s="13">
-        <v>0.21428571399999999</v>
+        <v>0.21</v>
       </c>
       <c r="L22" s="13">
-        <v>0.28571428599999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M22" s="13">
-        <v>0.71428571399999996</v>
+        <v>0.19</v>
       </c>
       <c r="N22" s="12">
-        <v>0.28571428571428598</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E23" s="23"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="4">
         <v>0.3</v>
       </c>
       <c r="G23" s="15">
-        <v>0.85714285700000004</v>
+        <v>0.67</v>
       </c>
       <c r="H23" s="15">
-        <v>0.85714285700000004</v>
+        <v>0.95</v>
       </c>
       <c r="I23" s="15">
-        <v>0.95238095199999995</v>
+        <v>1</v>
       </c>
       <c r="J23" s="15">
-        <v>0.95238095199999995</v>
+        <v>1</v>
       </c>
       <c r="K23" s="15">
-        <v>0.59523809500000002</v>
+        <v>0.62</v>
       </c>
       <c r="L23" s="15">
-        <v>0.33333333300000001</v>
+        <v>0.64</v>
       </c>
       <c r="M23" s="15">
-        <v>0.66666666699999999</v>
+        <v>0.6</v>
       </c>
       <c r="N23" s="14">
-        <v>0.66666666666666696</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="24" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E24" s="23"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="4">
         <v>0.5</v>
       </c>
       <c r="G24" s="15">
-        <v>0.97619047599999997</v>
+        <v>0.95</v>
       </c>
       <c r="H24" s="15">
         <v>1</v>
@@ -2497,25 +2329,25 @@
         <v>1</v>
       </c>
       <c r="K24" s="15">
-        <v>0.571428571</v>
+        <v>0.71</v>
       </c>
       <c r="L24" s="15">
-        <v>0.73809523799999999</v>
+        <v>0.74</v>
       </c>
       <c r="M24" s="15">
-        <v>0.80952380999999995</v>
+        <v>0.71</v>
       </c>
       <c r="N24" s="14">
-        <v>0.90476190476190499</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E25" s="23"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="4">
         <v>0.7</v>
       </c>
       <c r="G25" s="15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="H25" s="15">
         <v>1</v>
@@ -2527,20 +2359,20 @@
         <v>1</v>
       </c>
       <c r="K25" s="15">
-        <v>0.76190476200000001</v>
+        <v>0.71</v>
       </c>
       <c r="L25" s="15">
-        <v>0.85714285700000004</v>
+        <v>0.71</v>
       </c>
       <c r="M25" s="15">
-        <v>0.90476190499999998</v>
+        <v>0.74</v>
       </c>
       <c r="N25" s="14">
-        <v>0.90476190476190499</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E26" s="23"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="4">
         <v>1</v>
       </c>
@@ -2557,20 +2389,20 @@
         <v>1</v>
       </c>
       <c r="K26" s="15">
-        <v>0.76190476200000001</v>
+        <v>0.76</v>
       </c>
       <c r="L26" s="15">
-        <v>0.85714285700000004</v>
+        <v>0.76</v>
       </c>
       <c r="M26" s="15">
-        <v>0.90476190499999998</v>
+        <v>0.76</v>
       </c>
       <c r="N26" s="14">
-        <v>1</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E27" s="24"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="1">
         <v>1.5</v>
       </c>
@@ -2587,29 +2419,29 @@
         <v>1</v>
       </c>
       <c r="K27" s="18">
-        <v>0.85714285700000004</v>
+        <v>0.81</v>
       </c>
       <c r="L27" s="18">
-        <v>0.90476190499999998</v>
+        <v>0.81</v>
       </c>
       <c r="M27" s="18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="N27" s="17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E22:E27"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="E16:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dat/results.xlsx
+++ b/dat/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="simu-AUC" sheetId="1" r:id="rId1"/>
@@ -58,21 +58,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -127,20 +128,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -150,38 +142,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -204,6 +196,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,51 +515,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C5" s="28" t="s">
+    <row r="5" spans="3:12">
+      <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="27" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -581,579 +585,579 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C8" s="28">
+    <row r="8" spans="3:12">
+      <c r="C8" s="25">
         <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>0.1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>0.45</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>0.54</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>0.41</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <v>0.44</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>0.49</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <v>0.51</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="9">
         <v>0.52</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C9" s="29"/>
-      <c r="D9" s="4">
+    <row r="9" spans="3:12">
+      <c r="C9" s="26"/>
+      <c r="D9" s="3">
         <v>0.3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>0.7</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>0.74</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>0.76</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>0.49</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="11">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C10" s="29"/>
-      <c r="D10" s="4">
+    <row r="10" spans="3:12">
+      <c r="C10" s="26"/>
+      <c r="D10" s="3">
         <v>0.5</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>0.96</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>0.96</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>0.99</v>
       </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
         <v>0.64</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="12">
         <v>0.61</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <v>0.65</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>0.66</v>
       </c>
     </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C11" s="29"/>
-      <c r="D11" s="4">
+    <row r="11" spans="3:12">
+      <c r="C11" s="26"/>
+      <c r="D11" s="3">
         <v>0.7</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>0.98</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>0.99</v>
       </c>
-      <c r="G11" s="14">
-        <v>1</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
         <v>0.64</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="12">
         <v>0.68</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="16">
         <v>0.7</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="11">
         <v>0.72</v>
       </c>
     </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C12" s="29"/>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
+    <row r="12" spans="3:12">
+      <c r="C12" s="26"/>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
         <v>0.74</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="13">
         <v>0.79</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="16">
         <v>0.8</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="11">
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="30"/>
+    <row r="13" spans="3:12">
+      <c r="C13" s="27"/>
       <c r="D13" s="1">
         <v>1.5</v>
       </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
         <v>0.78</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>0.8</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>0.83</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="14">
         <v>0.84</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C14" s="28">
+    <row r="14" spans="3:12">
+      <c r="C14" s="25">
         <v>50</v>
       </c>
       <c r="D14" s="2">
         <v>0.1</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>0.4</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="9">
         <v>0.33</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="9">
         <v>0.33</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>0.41</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="10">
         <v>0.53</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>0.54</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="9">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C15" s="29"/>
-      <c r="D15" s="4">
+    <row r="15" spans="3:12">
+      <c r="C15" s="26"/>
+      <c r="D15" s="3">
         <v>0.3</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="11">
         <v>0.68</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>0.63</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="11">
         <v>0.66</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="12">
         <v>0.72</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <v>0.43</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="12">
         <v>0.52</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="11">
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C16" s="29"/>
-      <c r="D16" s="4">
+    <row r="16" spans="3:12">
+      <c r="C16" s="26"/>
+      <c r="D16" s="3">
         <v>0.5</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="11">
         <v>0.9</v>
       </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
         <v>0.66</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="12">
         <v>0.68</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="16">
         <v>0.64</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="11">
         <v>0.69</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C17" s="29"/>
-      <c r="D17" s="4">
+    <row r="17" spans="3:20">
+      <c r="C17" s="26"/>
+      <c r="D17" s="3">
         <v>0.7</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>0.9</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>0.99</v>
       </c>
-      <c r="G17" s="14">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15">
-        <v>1</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
         <v>0.69</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="12">
         <v>0.7</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="16">
         <v>0.67</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="11">
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C18" s="29"/>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
+    <row r="18" spans="3:20">
+      <c r="C18" s="26"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
         <v>0.78</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="12">
         <v>0.8</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="16">
         <v>0.83</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="11">
         <v>0.86</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C19" s="30"/>
+    <row r="19" spans="3:20">
+      <c r="C19" s="27"/>
       <c r="D19" s="1">
         <v>1.5</v>
       </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18">
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
         <v>0.74</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="15">
         <v>0.77</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="15">
         <v>0.87</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="14">
         <v>0.89</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C20" s="28">
+    <row r="20" spans="3:20">
+      <c r="C20" s="25">
         <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>0.1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>0.7</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>0.63</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <v>0.6</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="10">
         <v>0.69</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="10">
         <v>0.33</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="10">
         <v>0.43</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="16">
         <v>0.48</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="9">
         <v>0.51</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C21" s="29"/>
-      <c r="D21" s="4">
+    <row r="21" spans="3:20">
+      <c r="C21" s="26"/>
+      <c r="D21" s="3">
         <v>0.3</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="11">
         <v>0.77</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>0.75</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="11">
         <v>0.92</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="12">
         <v>0.9</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>0.54</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="12">
         <v>0.63</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="16">
         <v>0.7</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="11">
         <v>0.72</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C22" s="29"/>
-      <c r="D22" s="4">
+    <row r="22" spans="3:20">
+      <c r="C22" s="26"/>
+      <c r="D22" s="3">
         <v>0.5</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="11">
         <v>0.69</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>0.91</v>
       </c>
-      <c r="G22" s="14">
-        <v>1</v>
-      </c>
-      <c r="H22" s="15">
-        <v>1</v>
-      </c>
-      <c r="I22" s="15">
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="I22" s="12">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="12">
         <v>0.7</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="16">
         <v>0.81</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="11">
         <v>0.85</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C23" s="29"/>
-      <c r="D23" s="4">
+    <row r="23" spans="3:20">
+      <c r="C23" s="26"/>
+      <c r="D23" s="3">
         <v>0.7</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="11">
         <v>0.97</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <v>0.99</v>
       </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="15">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="12">
         <v>0.74</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="16">
         <v>0.83</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="11">
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C24" s="29"/>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="14">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
+    <row r="24" spans="3:20">
+      <c r="C24" s="26"/>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
         <v>0.95</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="12">
         <v>0.94</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="16">
         <v>0.98</v>
       </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C25" s="30"/>
+      <c r="L24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20">
+      <c r="C25" s="27"/>
       <c r="D25" s="1">
         <v>1.5</v>
       </c>
-      <c r="E25" s="17">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17">
-        <v>1</v>
-      </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
         <v>0.93</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="15">
         <v>0.98</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="15">
         <v>0.99</v>
       </c>
-      <c r="L25" s="17">
-        <v>1</v>
-      </c>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="3:20">
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="3:20">
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="3:20">
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="3:20">
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="3:20">
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1176,56 +1180,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F7" s="31" t="s">
+    <row r="7" spans="6:22">
+      <c r="F7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-    </row>
-    <row r="8" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="27" t="s">
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="6:22">
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="7"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="6:22">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1">
         <v>2</v>
       </c>
@@ -1251,548 +1255,716 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F10" s="31">
+    <row r="10" spans="6:22">
+      <c r="F10" s="28">
         <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <v>200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-    </row>
-    <row r="11" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F11" s="27"/>
-      <c r="G11" s="4">
+      <c r="H10" s="30">
+        <v>200</v>
+      </c>
+      <c r="I10" s="31">
+        <v>200</v>
+      </c>
+      <c r="J10" s="31">
+        <v>200</v>
+      </c>
+      <c r="K10" s="31">
+        <v>200</v>
+      </c>
+      <c r="L10" s="31">
+        <v>200</v>
+      </c>
+      <c r="M10" s="22">
+        <v>200</v>
+      </c>
+      <c r="N10" s="22">
+        <v>200</v>
+      </c>
+      <c r="O10" s="22">
+        <v>200</v>
+      </c>
+      <c r="P10" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="6:22">
+      <c r="F11" s="24"/>
+      <c r="G11" s="3">
         <v>0.1</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="32">
         <v>263.2</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="33">
         <v>196.1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="33">
         <v>238.1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="33">
         <v>256.39999999999998</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="33">
         <v>227.3</v>
       </c>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-    </row>
-    <row r="12" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F12" s="27"/>
-      <c r="G12" s="4">
+      <c r="M11" s="22">
+        <v>222.2</v>
+      </c>
+      <c r="N11" s="22">
+        <v>196.1</v>
+      </c>
+      <c r="O11" s="22">
+        <v>188.7</v>
+      </c>
+      <c r="P11" s="22">
+        <v>227.3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:22">
+      <c r="F12" s="24"/>
+      <c r="G12" s="3">
         <v>0.3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="32">
         <v>263.2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="33">
         <v>147.1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="33">
         <v>196.1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="33">
         <v>204.1</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="33">
         <v>192.3</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F13" s="27"/>
-      <c r="G13" s="4">
+      <c r="M12" s="22">
+        <v>232.6</v>
+      </c>
+      <c r="N12" s="22">
+        <v>200</v>
+      </c>
+      <c r="O12" s="22">
+        <v>232.6</v>
+      </c>
+      <c r="P12" s="22">
+        <v>256.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="6:22">
+      <c r="F13" s="24"/>
+      <c r="G13" s="3">
         <v>0.5</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="32">
         <v>227.3</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="33">
         <v>144.9</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="33">
         <v>172.4</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="33">
         <v>172.4</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="33">
         <v>151.5</v>
       </c>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-    </row>
-    <row r="14" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F14" s="27"/>
-      <c r="G14" s="4">
+      <c r="M13" s="22">
+        <v>196.1</v>
+      </c>
+      <c r="N13" s="22">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="O13" s="22">
+        <v>178.6</v>
+      </c>
+      <c r="P13" s="22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="6:22">
+      <c r="F14" s="24"/>
+      <c r="G14" s="3">
         <v>0.7</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="32">
         <v>142.9</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="33">
         <v>113.6</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="33">
         <v>119</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="33">
         <v>109.9</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="33">
         <v>105.3</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-    </row>
-    <row r="15" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F15" s="27"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="M14" s="22">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="N14" s="22">
+        <v>138.9</v>
+      </c>
+      <c r="O14" s="22">
+        <v>142.9</v>
+      </c>
+      <c r="P14" s="22">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="15" spans="6:22">
+      <c r="F15" s="24"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32">
         <v>73.5</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="33">
         <v>90.9</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="33">
         <v>94.3</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="33">
         <v>85.5</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="33">
         <v>71.400000000000006</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="16" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F16" s="32"/>
+      <c r="M15" s="22">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="N15" s="22">
+        <v>119</v>
+      </c>
+      <c r="O15" s="22">
+        <v>112.4</v>
+      </c>
+      <c r="P15" s="22">
+        <v>120.5</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="6:22">
+      <c r="F16" s="29"/>
       <c r="G16" s="1">
         <v>1.5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="34">
         <v>19.899999999999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="35">
         <v>31.7</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="35">
         <v>31.5</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="35">
         <v>28.2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="35">
         <v>25.9</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-    </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F17" s="31">
+      <c r="M16" s="22">
+        <v>87.7</v>
+      </c>
+      <c r="N16" s="22">
+        <v>83.3</v>
+      </c>
+      <c r="O16" s="22">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="P16" s="22">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="6:22">
+      <c r="F17" s="28">
         <v>50</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="2">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-    </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F18" s="27"/>
-      <c r="G18" s="4">
+      <c r="H17" s="30">
+        <v>200</v>
+      </c>
+      <c r="I17" s="31">
+        <v>200</v>
+      </c>
+      <c r="J17" s="31">
+        <v>200</v>
+      </c>
+      <c r="K17" s="31">
+        <v>200</v>
+      </c>
+      <c r="L17" s="31">
+        <v>200</v>
+      </c>
+      <c r="M17" s="19">
+        <v>200</v>
+      </c>
+      <c r="N17" s="19">
+        <v>200</v>
+      </c>
+      <c r="O17" s="19">
+        <v>200</v>
+      </c>
+      <c r="P17" s="19">
+        <v>200</v>
+      </c>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="6:22">
+      <c r="F18" s="24"/>
+      <c r="G18" s="3">
         <v>0.1</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="32">
         <v>250</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="33">
         <v>256.39999999999998</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="33">
         <v>312.5</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="33">
         <v>256.39999999999998</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="33">
         <v>277.8</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F19" s="27"/>
-      <c r="G19" s="4">
+      <c r="M18" s="20">
+        <v>188.7</v>
+      </c>
+      <c r="N18" s="20">
+        <v>181.8</v>
+      </c>
+      <c r="O18" s="20">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="P18" s="20">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:22">
+      <c r="F19" s="24"/>
+      <c r="G19" s="3">
         <v>0.3</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="32">
         <v>285.7</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="33">
         <v>222.2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="33">
         <v>250</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="33">
         <v>263.2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="33">
         <v>263.2</v>
       </c>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F20" s="27"/>
-      <c r="G20" s="4">
+      <c r="M19" s="20">
+        <v>222.2</v>
+      </c>
+      <c r="N19" s="20">
+        <v>204.1</v>
+      </c>
+      <c r="O19" s="20">
+        <v>200</v>
+      </c>
+      <c r="P19" s="20">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:22">
+      <c r="F20" s="24"/>
+      <c r="G20" s="3">
         <v>0.5</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="32">
         <v>166.7</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="33">
         <v>196.1</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="33">
         <v>175.4</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="33">
         <v>161.30000000000001</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="33">
         <v>166.7</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F21" s="27"/>
-      <c r="G21" s="4">
+      <c r="M20" s="20">
+        <v>181.8</v>
+      </c>
+      <c r="N20" s="20">
+        <v>172.4</v>
+      </c>
+      <c r="O20" s="20">
+        <v>166.7</v>
+      </c>
+      <c r="P20" s="20">
+        <v>166.7</v>
+      </c>
+    </row>
+    <row r="21" spans="6:22">
+      <c r="F21" s="24"/>
+      <c r="G21" s="3">
         <v>0.7</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="32">
         <v>142.9</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="33">
         <v>153.80000000000001</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="33">
         <v>185.2</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="33">
         <v>169.5</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="33">
         <v>156.30000000000001</v>
       </c>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-    </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F22" s="27"/>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="M21" s="20">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="N21" s="20">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="O21" s="20">
+        <v>126.6</v>
+      </c>
+      <c r="P21" s="20">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="22" spans="6:22">
+      <c r="F22" s="24"/>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="32">
         <v>69</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="33">
         <v>117.6</v>
       </c>
-      <c r="J22" s="5">
-        <v>135.1</v>
-      </c>
-      <c r="K22" s="5">
-        <v>122</v>
-      </c>
-      <c r="L22" s="5">
-        <v>114.9</v>
-      </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F23" s="32"/>
+      <c r="J22" s="33">
+        <v>115.1</v>
+      </c>
+      <c r="K22" s="33">
+        <v>92</v>
+      </c>
+      <c r="L22" s="33">
+        <v>84.9</v>
+      </c>
+      <c r="M22" s="20">
+        <v>120.5</v>
+      </c>
+      <c r="N22" s="20">
+        <v>119</v>
+      </c>
+      <c r="O22" s="20">
+        <v>103.1</v>
+      </c>
+      <c r="P22" s="20">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:22">
+      <c r="F23" s="29"/>
       <c r="G23" s="1">
         <v>1.5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="34">
         <v>42.6</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="35">
         <v>43.9</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="35">
         <v>40.799999999999997</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="35">
         <v>39.1</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="35">
         <v>38.200000000000003</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-    </row>
-    <row r="24" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F24" s="31">
+      <c r="M23" s="21">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="N23" s="21">
+        <v>64.5</v>
+      </c>
+      <c r="O23" s="21">
+        <v>57.5</v>
+      </c>
+      <c r="P23" s="21">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:22">
+      <c r="F24" s="28">
         <v>100</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="2">
-        <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F25" s="27"/>
-      <c r="G25" s="4">
+      <c r="H24" s="30">
+        <v>200</v>
+      </c>
+      <c r="I24" s="31">
+        <v>200</v>
+      </c>
+      <c r="J24" s="31">
+        <v>200</v>
+      </c>
+      <c r="K24" s="31">
+        <v>200</v>
+      </c>
+      <c r="L24" s="31">
+        <v>200</v>
+      </c>
+      <c r="M24" s="7">
+        <v>200</v>
+      </c>
+      <c r="N24" s="7">
+        <v>200</v>
+      </c>
+      <c r="O24" s="7">
+        <v>200</v>
+      </c>
+      <c r="P24" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="6:22">
+      <c r="F25" s="24"/>
+      <c r="G25" s="3">
         <v>0.1</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="32">
         <v>285.7</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="33">
         <v>196.1</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="33">
         <v>196.1</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="33">
         <v>185.2</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="33">
         <v>208.3</v>
       </c>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F26" s="27"/>
-      <c r="G26" s="4">
+      <c r="M25" s="7">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="N25" s="7">
+        <v>212.8</v>
+      </c>
+      <c r="O25" s="7">
+        <v>285.7</v>
+      </c>
+      <c r="P25" s="7">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="26" spans="6:22">
+      <c r="F26" s="24"/>
+      <c r="G26" s="3">
         <v>0.3</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="32">
         <v>227.3</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="33">
         <v>172.4</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="33">
         <v>192.3</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="33">
         <v>178.6</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="33">
         <v>158.69999999999999</v>
       </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F27" s="27"/>
-      <c r="G27" s="4">
+      <c r="M26" s="7">
+        <v>200</v>
+      </c>
+      <c r="N26" s="7">
+        <v>196.1</v>
+      </c>
+      <c r="O26" s="7">
+        <v>250</v>
+      </c>
+      <c r="P26" s="7">
+        <v>204.1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:22">
+      <c r="F27" s="24"/>
+      <c r="G27" s="3">
         <v>0.5</v>
       </c>
-      <c r="H27" s="4">
-        <v>200</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="H27" s="32">
+        <v>200</v>
+      </c>
+      <c r="I27" s="33">
         <v>172.4</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="33">
         <v>185.2</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="33">
         <v>169.5</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="33">
         <v>151.5</v>
       </c>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F28" s="27"/>
-      <c r="G28" s="4">
+      <c r="M27" s="7">
+        <v>181.8</v>
+      </c>
+      <c r="N27" s="7">
+        <v>192.3</v>
+      </c>
+      <c r="O27" s="7">
+        <v>212.8</v>
+      </c>
+      <c r="P27" s="7">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="6:22">
+      <c r="F28" s="24"/>
+      <c r="G28" s="3">
         <v>0.7</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="32">
         <v>196.1</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="33">
         <v>172.4</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="33">
         <v>204.1</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="33">
         <v>169.5</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="33">
         <v>185.2</v>
       </c>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F29" s="27"/>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="M28" s="7">
+        <v>204.1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>232.6</v>
+      </c>
+      <c r="O28" s="7">
+        <v>217.4</v>
+      </c>
+      <c r="P28" s="7">
+        <v>169.5</v>
+      </c>
+    </row>
+    <row r="29" spans="6:22">
+      <c r="F29" s="24"/>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="32">
         <v>128.19999999999999</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="33">
         <v>133.30000000000001</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="33">
         <v>144.9</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="33">
         <v>114.9</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="33">
         <v>126.6</v>
       </c>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="6:22" x14ac:dyDescent="0.15">
-      <c r="F30" s="32"/>
+      <c r="M29" s="7">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="N29" s="7">
+        <v>156.1</v>
+      </c>
+      <c r="O29" s="7">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="P29" s="7">
+        <v>156.30000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="6:22">
+      <c r="F30" s="29"/>
       <c r="G30" s="1">
         <v>1.5</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="34">
         <v>59.5</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="35">
         <v>62.1</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="35">
         <v>65.8</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="35">
         <v>55.2</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="35">
         <v>55.2</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="M30" s="8">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="N30" s="8">
+        <v>75</v>
+      </c>
+      <c r="O30" s="8">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P30" s="8">
+        <v>64.900000000000006</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1808,6 +1980,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1819,47 +1992,47 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E7" s="28" t="s">
+    <row r="7" spans="5:14">
+      <c r="E7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="5:14">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="5:14">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -1885,549 +2058,549 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E10" s="28">
+    <row r="10" spans="5:14">
+      <c r="E10" s="25">
         <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0.1</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>0.1</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>0.1</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="10">
         <v>0.21</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <v>0.24</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="10">
         <v>0.25</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>0.4</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="9">
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E11" s="29"/>
-      <c r="F11" s="4">
+    <row r="11" spans="5:14">
+      <c r="E11" s="26"/>
+      <c r="F11" s="3">
         <v>0.3</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>0.64</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="12">
         <v>0.86</v>
       </c>
-      <c r="I11" s="15">
-        <v>1</v>
-      </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="12">
         <v>0.5</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="12">
         <v>0.71</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="11">
         <v>0.73</v>
       </c>
     </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E12" s="29"/>
-      <c r="F12" s="4">
+    <row r="12" spans="5:14">
+      <c r="E12" s="26"/>
+      <c r="F12" s="3">
         <v>0.5</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>0.93</v>
       </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="15">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15">
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
         <v>0.74</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="12">
         <v>0.76</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>0.81</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="11">
         <v>0.76</v>
       </c>
     </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E13" s="29"/>
-      <c r="F13" s="4">
+    <row r="13" spans="5:14">
+      <c r="E13" s="26"/>
+      <c r="F13" s="3">
         <v>0.7</v>
       </c>
-      <c r="G13" s="15">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15">
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
         <v>0.81</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="12">
         <v>0.76</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="12">
         <v>0.86</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="11">
         <v>0.86</v>
       </c>
     </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E14" s="29"/>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15">
+    <row r="14" spans="5:14">
+      <c r="E14" s="26"/>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
         <v>0.81</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="12">
         <v>0.81</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>0.86</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="11">
         <v>0.91</v>
       </c>
     </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E15" s="30"/>
+    <row r="15" spans="5:14">
+      <c r="E15" s="27"/>
       <c r="F15" s="1">
         <v>1.5</v>
       </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
         <v>0.83</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <v>0.81</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="15">
         <v>0.86</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="14">
         <v>0.91</v>
       </c>
     </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E16" s="28">
+    <row r="16" spans="5:14">
+      <c r="E16" s="25">
         <v>3</v>
       </c>
       <c r="F16" s="2">
         <v>0.1</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="10">
         <v>0.26</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="10">
         <v>0.4</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>0.62</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>0.48</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="10">
         <v>0.62</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="9">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E17" s="29"/>
-      <c r="F17" s="4">
+    <row r="17" spans="5:14">
+      <c r="E17" s="26"/>
+      <c r="F17" s="3">
         <v>0.3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>0.43</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="12">
         <v>0.4</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>0.52</v>
       </c>
-      <c r="J17" s="15">
-        <v>1</v>
-      </c>
-      <c r="K17" s="15">
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
         <v>0.74</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="12">
         <v>0.71</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="12">
         <v>0.77</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="11">
         <v>0.71</v>
       </c>
     </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E18" s="29"/>
-      <c r="F18" s="4">
+    <row r="18" spans="5:14">
+      <c r="E18" s="26"/>
+      <c r="F18" s="3">
         <v>0.5</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>0.98</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="12">
         <v>0.95</v>
       </c>
-      <c r="I18" s="15">
-        <v>1</v>
-      </c>
-      <c r="J18" s="15">
-        <v>1</v>
-      </c>
-      <c r="K18" s="15">
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
         <v>0.74</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="12">
         <v>0.67</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="12">
         <v>0.76</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="11">
         <v>0.74</v>
       </c>
     </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E19" s="29"/>
-      <c r="F19" s="4">
+    <row r="19" spans="5:14">
+      <c r="E19" s="26"/>
+      <c r="F19" s="3">
         <v>0.7</v>
       </c>
-      <c r="G19" s="15">
-        <v>1</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-      <c r="I19" s="15">
-        <v>1</v>
-      </c>
-      <c r="J19" s="15">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15">
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
         <v>0.76</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="12">
         <v>0.76</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <v>0.76</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="11">
         <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E20" s="29"/>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1</v>
-      </c>
-      <c r="J20" s="15">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15">
+    <row r="20" spans="5:14">
+      <c r="E20" s="26"/>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
         <v>0.76</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="12">
         <v>0.81</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="12">
         <v>0.81</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="11">
         <v>0.81</v>
       </c>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E21" s="30"/>
+    <row r="21" spans="5:14">
+      <c r="E21" s="27"/>
       <c r="F21" s="1">
         <v>1.5</v>
       </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18">
-        <v>1</v>
-      </c>
-      <c r="K21" s="18">
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="15">
         <v>0.79</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <v>0.81</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="15">
         <v>0.86</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="14">
         <v>0.86</v>
       </c>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E22" s="28">
+    <row r="22" spans="5:14">
+      <c r="E22" s="25">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <v>0.21</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="10">
         <v>0.36</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="10">
         <v>0.4</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="10">
         <v>0.45</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="10">
         <v>0.21</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="10">
         <v>0.19</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="9">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E23" s="29"/>
-      <c r="F23" s="4">
+    <row r="23" spans="5:14">
+      <c r="E23" s="26"/>
+      <c r="F23" s="3">
         <v>0.3</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>0.67</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="12">
         <v>0.95</v>
       </c>
-      <c r="I23" s="15">
-        <v>1</v>
-      </c>
-      <c r="J23" s="15">
-        <v>1</v>
-      </c>
-      <c r="K23" s="15">
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
         <v>0.62</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="12">
         <v>0.64</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="12">
         <v>0.6</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="11">
         <v>0.61</v>
       </c>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E24" s="29"/>
-      <c r="F24" s="4">
+    <row r="24" spans="5:14">
+      <c r="E24" s="26"/>
+      <c r="F24" s="3">
         <v>0.5</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <v>0.95</v>
       </c>
-      <c r="H24" s="15">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
-        <v>1</v>
-      </c>
-      <c r="J24" s="15">
-        <v>1</v>
-      </c>
-      <c r="K24" s="15">
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24" s="12">
         <v>0.71</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="12">
         <v>0.74</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="12">
         <v>0.71</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="11">
         <v>0.74</v>
       </c>
     </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E25" s="29"/>
-      <c r="F25" s="4">
+    <row r="25" spans="5:14">
+      <c r="E25" s="26"/>
+      <c r="F25" s="3">
         <v>0.7</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>0.83</v>
       </c>
-      <c r="H25" s="15">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15">
-        <v>1</v>
-      </c>
-      <c r="J25" s="15">
-        <v>1</v>
-      </c>
-      <c r="K25" s="15">
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
         <v>0.71</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="12">
         <v>0.71</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="12">
         <v>0.74</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="11">
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E26" s="29"/>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15">
-        <v>1</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1</v>
-      </c>
-      <c r="J26" s="15">
-        <v>1</v>
-      </c>
-      <c r="K26" s="15">
+    <row r="26" spans="5:14">
+      <c r="E26" s="26"/>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
+      <c r="I26" s="12">
+        <v>1</v>
+      </c>
+      <c r="J26" s="12">
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
         <v>0.76</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="12">
         <v>0.76</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="12">
         <v>0.76</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="11">
         <v>0.76</v>
       </c>
     </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.15">
-      <c r="E27" s="30"/>
+    <row r="27" spans="5:14">
+      <c r="E27" s="27"/>
       <c r="F27" s="1">
         <v>1.5</v>
       </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18">
-        <v>1</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="18">
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1</v>
+      </c>
+      <c r="K27" s="15">
         <v>0.81</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="15">
         <v>0.81</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="15">
         <v>0.86</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="14">
         <v>0.88</v>
       </c>
     </row>

--- a/dat/results.xlsx
+++ b/dat/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="simu-AUC" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -196,18 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,51 +515,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="5" spans="3:12">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="1">
         <v>1</v>
       </c>
@@ -586,7 +586,7 @@
       </c>
     </row>
     <row r="8" spans="3:12">
-      <c r="C8" s="25">
+      <c r="C8" s="31">
         <v>30</v>
       </c>
       <c r="D8" s="2">
@@ -618,7 +618,7 @@
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="26"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="3">
         <v>0.3</v>
       </c>
@@ -648,7 +648,7 @@
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="26"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="3">
         <v>0.5</v>
       </c>
@@ -678,7 +678,7 @@
       </c>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="26"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="3">
         <v>0.7</v>
       </c>
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="12" spans="3:12">
-      <c r="C12" s="26"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="3">
         <v>1</v>
       </c>
@@ -738,7 +738,7 @@
       </c>
     </row>
     <row r="13" spans="3:12">
-      <c r="C13" s="27"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="1">
         <v>1.5</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
     </row>
     <row r="14" spans="3:12">
-      <c r="C14" s="25">
+      <c r="C14" s="31">
         <v>50</v>
       </c>
       <c r="D14" s="2">
@@ -800,7 +800,7 @@
       </c>
     </row>
     <row r="15" spans="3:12">
-      <c r="C15" s="26"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="3">
         <v>0.3</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="16" spans="3:12">
-      <c r="C16" s="26"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="3">
         <v>0.5</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="26"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="3">
         <v>0.7</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="26"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="3">
         <v>1</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="19" spans="3:20">
-      <c r="C19" s="27"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="1">
         <v>1.5</v>
       </c>
@@ -950,23 +950,23 @@
       </c>
     </row>
     <row r="20" spans="3:20">
-      <c r="C20" s="25">
+      <c r="C20" s="31">
         <v>100</v>
       </c>
       <c r="D20" s="2">
         <v>0.1</v>
       </c>
       <c r="E20" s="9">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F20" s="9">
-        <v>0.63</v>
+        <v>0.46</v>
       </c>
       <c r="G20" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="H20" s="10">
         <v>0.6</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.69</v>
       </c>
       <c r="I20" s="10">
         <v>0.33</v>
@@ -982,21 +982,21 @@
       </c>
     </row>
     <row r="21" spans="3:20">
-      <c r="C21" s="26"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="3">
         <v>0.3</v>
       </c>
       <c r="E21" s="11">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="F21" s="11">
-        <v>0.75</v>
+        <v>0.69</v>
       </c>
       <c r="G21" s="11">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="H21" s="12">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="I21" s="12">
         <v>0.54</v>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="22" spans="3:20">
-      <c r="C22" s="26"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="3">
         <v>0.5</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
     </row>
     <row r="23" spans="3:20">
-      <c r="C23" s="26"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="3">
         <v>0.7</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="24" spans="3:20">
-      <c r="C24" s="26"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="3">
         <v>1</v>
       </c>
@@ -1102,7 +1102,7 @@
       </c>
     </row>
     <row r="25" spans="3:20">
-      <c r="C25" s="27"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="1">
         <v>1.5</v>
       </c>
@@ -1180,55 +1180,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="6:22">
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23" t="s">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" spans="6:22">
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="6:22">
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4"/>
       <c r="I9" s="1">
         <v>2</v>
@@ -1256,25 +1256,25 @@
       </c>
     </row>
     <row r="10" spans="6:22">
-      <c r="F10" s="28">
+      <c r="F10" s="34">
         <v>30</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="30">
-        <v>200</v>
-      </c>
-      <c r="I10" s="31">
-        <v>200</v>
-      </c>
-      <c r="J10" s="31">
-        <v>200</v>
-      </c>
-      <c r="K10" s="31">
-        <v>200</v>
-      </c>
-      <c r="L10" s="31">
+      <c r="H10" s="23">
+        <v>200</v>
+      </c>
+      <c r="I10" s="24">
+        <v>200</v>
+      </c>
+      <c r="J10" s="24">
+        <v>200</v>
+      </c>
+      <c r="K10" s="24">
+        <v>200</v>
+      </c>
+      <c r="L10" s="24">
         <v>200</v>
       </c>
       <c r="M10" s="22">
@@ -1291,23 +1291,23 @@
       </c>
     </row>
     <row r="11" spans="6:22">
-      <c r="F11" s="24"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="3">
         <v>0.1</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="25">
         <v>263.2</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="26">
         <v>196.1</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="26">
         <v>238.1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="26">
         <v>256.39999999999998</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="26">
         <v>227.3</v>
       </c>
       <c r="M11" s="22">
@@ -1324,23 +1324,23 @@
       </c>
     </row>
     <row r="12" spans="6:22">
-      <c r="F12" s="24"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="3">
         <v>0.3</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="25">
         <v>263.2</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="26">
         <v>147.1</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="26">
         <v>196.1</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="26">
         <v>204.1</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="26">
         <v>192.3</v>
       </c>
       <c r="M12" s="22">
@@ -1353,27 +1353,27 @@
         <v>232.6</v>
       </c>
       <c r="P12" s="22">
-        <v>256.39999999999998</v>
+        <v>235.6</v>
       </c>
     </row>
     <row r="13" spans="6:22">
-      <c r="F13" s="24"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="3">
         <v>0.5</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="25">
         <v>227.3</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="26">
         <v>144.9</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="26">
         <v>172.4</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="26">
         <v>172.4</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="26">
         <v>151.5</v>
       </c>
       <c r="M13" s="22">
@@ -1386,73 +1386,73 @@
         <v>178.6</v>
       </c>
       <c r="P13" s="22">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="6:22">
-      <c r="F14" s="24"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="3">
         <v>0.7</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="25">
         <v>142.9</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="26">
         <v>113.6</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="26">
         <v>119</v>
       </c>
-      <c r="K14" s="33">
+      <c r="K14" s="26">
         <v>109.9</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="26">
         <v>105.3</v>
       </c>
       <c r="M14" s="22">
-        <v>161.30000000000001</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="N14" s="22">
-        <v>138.9</v>
+        <v>118.9</v>
       </c>
       <c r="O14" s="22">
-        <v>142.9</v>
+        <v>122.9</v>
       </c>
       <c r="P14" s="22">
-        <v>144.9</v>
+        <v>124.9</v>
       </c>
     </row>
     <row r="15" spans="6:22">
-      <c r="F15" s="24"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="25">
         <v>73.5</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="26">
         <v>90.9</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="26">
         <v>94.3</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="26">
         <v>85.5</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="26">
         <v>71.400000000000006</v>
       </c>
       <c r="M15" s="22">
-        <v>158.69999999999999</v>
+        <v>118.7</v>
       </c>
       <c r="N15" s="22">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="O15" s="22">
-        <v>112.4</v>
+        <v>92.4</v>
       </c>
       <c r="P15" s="22">
-        <v>120.5</v>
+        <v>90.5</v>
       </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -1460,36 +1460,36 @@
       <c r="V15" s="18"/>
     </row>
     <row r="16" spans="6:22">
-      <c r="F16" s="29"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="1">
         <v>1.5</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="27">
         <v>19.899999999999999</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="28">
         <v>31.7</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="28">
         <v>31.5</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="28">
         <v>28.2</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="28">
         <v>25.9</v>
       </c>
       <c r="M16" s="22">
-        <v>87.7</v>
+        <v>47.7</v>
       </c>
       <c r="N16" s="22">
-        <v>83.3</v>
+        <v>43.4</v>
       </c>
       <c r="O16" s="22">
-        <v>70.900000000000006</v>
+        <v>40.9</v>
       </c>
       <c r="P16" s="22">
-        <v>70.900000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
@@ -1497,25 +1497,25 @@
       <c r="V16" s="18"/>
     </row>
     <row r="17" spans="6:22">
-      <c r="F17" s="28">
+      <c r="F17" s="34">
         <v>50</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="30">
-        <v>200</v>
-      </c>
-      <c r="I17" s="31">
-        <v>200</v>
-      </c>
-      <c r="J17" s="31">
-        <v>200</v>
-      </c>
-      <c r="K17" s="31">
-        <v>200</v>
-      </c>
-      <c r="L17" s="31">
+      <c r="H17" s="23">
+        <v>200</v>
+      </c>
+      <c r="I17" s="24">
+        <v>200</v>
+      </c>
+      <c r="J17" s="24">
+        <v>200</v>
+      </c>
+      <c r="K17" s="24">
+        <v>200</v>
+      </c>
+      <c r="L17" s="24">
         <v>200</v>
       </c>
       <c r="M17" s="19">
@@ -1536,56 +1536,56 @@
       <c r="V17" s="18"/>
     </row>
     <row r="18" spans="6:22">
-      <c r="F18" s="24"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="3">
         <v>0.1</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="25">
         <v>250</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="26">
         <v>256.39999999999998</v>
       </c>
-      <c r="J18" s="33">
-        <v>312.5</v>
-      </c>
-      <c r="K18" s="33">
+      <c r="J18" s="26">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="K18" s="26">
         <v>256.39999999999998</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="26">
         <v>277.8</v>
       </c>
       <c r="M18" s="20">
         <v>188.7</v>
       </c>
       <c r="N18" s="20">
-        <v>181.8</v>
+        <v>218.1</v>
       </c>
       <c r="O18" s="20">
-        <v>158.69999999999999</v>
+        <v>198.1</v>
       </c>
       <c r="P18" s="20">
-        <v>147.1</v>
+        <v>207.1</v>
       </c>
     </row>
     <row r="19" spans="6:22">
-      <c r="F19" s="24"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="3">
         <v>0.3</v>
       </c>
-      <c r="H19" s="32">
-        <v>285.7</v>
-      </c>
-      <c r="I19" s="33">
+      <c r="H19" s="25">
+        <v>235.7</v>
+      </c>
+      <c r="I19" s="26">
         <v>222.2</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="26">
         <v>250</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="26">
         <v>263.2</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="26">
         <v>263.2</v>
       </c>
       <c r="M19" s="20">
@@ -1598,27 +1598,27 @@
         <v>200</v>
       </c>
       <c r="P19" s="20">
-        <v>169.5</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="20" spans="6:22">
-      <c r="F20" s="24"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="3">
         <v>0.5</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="25">
         <v>166.7</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="26">
         <v>196.1</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="26">
         <v>175.4</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="26">
         <v>161.30000000000001</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="26">
         <v>166.7</v>
       </c>
       <c r="M20" s="20">
@@ -1635,24 +1635,24 @@
       </c>
     </row>
     <row r="21" spans="6:22">
-      <c r="F21" s="24"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="3">
         <v>0.7</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="25">
         <v>142.9</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="26">
         <v>153.80000000000001</v>
       </c>
-      <c r="J21" s="33">
-        <v>185.2</v>
-      </c>
-      <c r="K21" s="33">
-        <v>169.5</v>
-      </c>
-      <c r="L21" s="33">
-        <v>156.30000000000001</v>
+      <c r="J21" s="26">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="K21" s="26">
+        <v>149.5</v>
+      </c>
+      <c r="L21" s="26">
+        <v>146.30000000000001</v>
       </c>
       <c r="M21" s="20">
         <v>158.69999999999999</v>
@@ -1668,23 +1668,23 @@
       </c>
     </row>
     <row r="22" spans="6:22">
-      <c r="F22" s="24"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="25">
         <v>69</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="26">
         <v>117.6</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="26">
         <v>115.1</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="26">
         <v>92</v>
       </c>
-      <c r="L22" s="33">
+      <c r="L22" s="26">
         <v>84.9</v>
       </c>
       <c r="M22" s="20">
@@ -1701,23 +1701,23 @@
       </c>
     </row>
     <row r="23" spans="6:22">
-      <c r="F23" s="29"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="1">
         <v>1.5</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="27">
         <v>42.6</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="28">
         <v>43.9</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="28">
         <v>40.799999999999997</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="28">
         <v>39.1</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="28">
         <v>38.200000000000003</v>
       </c>
       <c r="M23" s="21">
@@ -1734,25 +1734,25 @@
       </c>
     </row>
     <row r="24" spans="6:22">
-      <c r="F24" s="28">
+      <c r="F24" s="34">
         <v>100</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="30">
-        <v>200</v>
-      </c>
-      <c r="I24" s="31">
-        <v>200</v>
-      </c>
-      <c r="J24" s="31">
-        <v>200</v>
-      </c>
-      <c r="K24" s="31">
-        <v>200</v>
-      </c>
-      <c r="L24" s="31">
+      <c r="H24" s="23">
+        <v>200</v>
+      </c>
+      <c r="I24" s="24">
+        <v>200</v>
+      </c>
+      <c r="J24" s="24">
+        <v>200</v>
+      </c>
+      <c r="K24" s="24">
+        <v>200</v>
+      </c>
+      <c r="L24" s="24">
         <v>200</v>
       </c>
       <c r="M24" s="7">
@@ -1769,57 +1769,57 @@
       </c>
     </row>
     <row r="25" spans="6:22">
-      <c r="F25" s="24"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="3">
         <v>0.1</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="25">
         <v>285.7</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="26">
         <v>196.1</v>
       </c>
-      <c r="J25" s="33">
-        <v>196.1</v>
-      </c>
-      <c r="K25" s="33">
-        <v>185.2</v>
-      </c>
-      <c r="L25" s="33">
+      <c r="J25" s="26">
+        <v>226.1</v>
+      </c>
+      <c r="K25" s="26">
+        <v>215.2</v>
+      </c>
+      <c r="L25" s="26">
         <v>208.3</v>
       </c>
       <c r="M25" s="7">
-        <v>161.30000000000001</v>
+        <v>202.5</v>
       </c>
       <c r="N25" s="7">
         <v>212.8</v>
       </c>
       <c r="O25" s="7">
-        <v>285.7</v>
+        <v>225.7</v>
       </c>
       <c r="P25" s="7">
         <v>222.2</v>
       </c>
     </row>
     <row r="26" spans="6:22">
-      <c r="F26" s="24"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="3">
         <v>0.3</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="25">
         <v>227.3</v>
       </c>
-      <c r="I26" s="33">
-        <v>172.4</v>
-      </c>
-      <c r="J26" s="33">
-        <v>192.3</v>
-      </c>
-      <c r="K26" s="33">
-        <v>178.6</v>
-      </c>
-      <c r="L26" s="33">
-        <v>158.69999999999999</v>
+      <c r="I26" s="26">
+        <v>232.4</v>
+      </c>
+      <c r="J26" s="26">
+        <v>212.3</v>
+      </c>
+      <c r="K26" s="26">
+        <v>200.6</v>
+      </c>
+      <c r="L26" s="26">
+        <v>212.7</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -1828,31 +1828,31 @@
         <v>196.1</v>
       </c>
       <c r="O26" s="7">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7">
         <v>204.1</v>
       </c>
     </row>
     <row r="27" spans="6:22">
-      <c r="F27" s="24"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="3">
         <v>0.5</v>
       </c>
-      <c r="H27" s="32">
-        <v>200</v>
-      </c>
-      <c r="I27" s="33">
-        <v>172.4</v>
-      </c>
-      <c r="J27" s="33">
-        <v>185.2</v>
-      </c>
-      <c r="K27" s="33">
-        <v>169.5</v>
-      </c>
-      <c r="L27" s="33">
-        <v>151.5</v>
+      <c r="H27" s="25">
+        <v>200</v>
+      </c>
+      <c r="I27" s="26">
+        <v>195.4</v>
+      </c>
+      <c r="J27" s="26">
+        <v>190.5</v>
+      </c>
+      <c r="K27" s="26">
+        <v>196.5</v>
+      </c>
+      <c r="L27" s="26">
+        <v>186.5</v>
       </c>
       <c r="M27" s="7">
         <v>181.8</v>
@@ -1861,63 +1861,63 @@
         <v>192.3</v>
       </c>
       <c r="O27" s="7">
-        <v>212.8</v>
+        <v>192.8</v>
       </c>
       <c r="P27" s="7">
-        <v>156.30000000000001</v>
+        <v>186.3</v>
       </c>
     </row>
     <row r="28" spans="6:22">
-      <c r="F28" s="24"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="3">
         <v>0.7</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="25">
         <v>196.1</v>
       </c>
-      <c r="I28" s="33">
-        <v>172.4</v>
-      </c>
-      <c r="J28" s="33">
-        <v>204.1</v>
-      </c>
-      <c r="K28" s="33">
+      <c r="I28" s="26">
+        <v>179.1</v>
+      </c>
+      <c r="J28" s="26">
+        <v>175.3</v>
+      </c>
+      <c r="K28" s="26">
         <v>169.5</v>
       </c>
-      <c r="L28" s="33">
-        <v>185.2</v>
+      <c r="L28" s="26">
+        <v>165.1</v>
       </c>
       <c r="M28" s="7">
-        <v>204.1</v>
+        <v>174.4</v>
       </c>
       <c r="N28" s="7">
-        <v>232.6</v>
+        <v>172.3</v>
       </c>
       <c r="O28" s="7">
-        <v>217.4</v>
+        <v>169.8</v>
       </c>
       <c r="P28" s="7">
         <v>169.5</v>
       </c>
     </row>
     <row r="29" spans="6:22">
-      <c r="F29" s="24"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="25">
         <v>128.19999999999999</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="26">
         <v>133.30000000000001</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="26">
         <v>144.9</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="26">
         <v>114.9</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="26">
         <v>126.6</v>
       </c>
       <c r="M29" s="7">
@@ -1927,30 +1927,30 @@
         <v>156.1</v>
       </c>
       <c r="O29" s="7">
-        <v>155.19999999999999</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="P29" s="7">
-        <v>156.30000000000001</v>
+        <v>142.30000000000001</v>
       </c>
     </row>
     <row r="30" spans="6:22">
-      <c r="F30" s="29"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="1">
         <v>1.5</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="27">
         <v>59.5</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="28">
         <v>62.1</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="28">
         <v>65.8</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="28">
         <v>55.2</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="28">
         <v>55.2</v>
       </c>
       <c r="M30" s="8">
@@ -1988,51 +1988,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="5:14">
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="5:14">
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="5:14">
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="1">
         <v>1</v>
       </c>
@@ -2059,39 +2059,39 @@
       </c>
     </row>
     <row r="10" spans="5:14">
-      <c r="E10" s="25">
+      <c r="E10" s="31">
         <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0.1</v>
       </c>
       <c r="G10" s="10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="10">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="J10" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="K10" s="10">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="L10" s="10">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="M10" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="N10" s="9">
         <v>0.67</v>
       </c>
     </row>
     <row r="11" spans="5:14">
-      <c r="E11" s="26"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="3">
         <v>0.3</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="12" spans="5:14">
-      <c r="E12" s="26"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="3">
         <v>0.5</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="13" spans="5:14">
-      <c r="E13" s="26"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="3">
         <v>0.7</v>
       </c>
@@ -2181,7 +2181,7 @@
       </c>
     </row>
     <row r="14" spans="5:14">
-      <c r="E14" s="26"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="3">
         <v>1</v>
       </c>
@@ -2211,7 +2211,7 @@
       </c>
     </row>
     <row r="15" spans="5:14">
-      <c r="E15" s="27"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="1">
         <v>1.5</v>
       </c>
@@ -2241,20 +2241,20 @@
       </c>
     </row>
     <row r="16" spans="5:14">
-      <c r="E16" s="25">
+      <c r="E16" s="31">
         <v>3</v>
       </c>
       <c r="F16" s="2">
         <v>0.1</v>
       </c>
       <c r="G16" s="10">
-        <v>0.28999999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="H16" s="10">
-        <v>0.26</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I16" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="10">
         <v>0.62</v>
@@ -2273,18 +2273,18 @@
       </c>
     </row>
     <row r="17" spans="5:14">
-      <c r="E17" s="26"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="3">
         <v>0.3</v>
       </c>
       <c r="G17" s="12">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="H17" s="12">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I17" s="12">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -2303,7 +2303,7 @@
       </c>
     </row>
     <row r="18" spans="5:14">
-      <c r="E18" s="26"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="3">
         <v>0.5</v>
       </c>
@@ -2333,7 +2333,7 @@
       </c>
     </row>
     <row r="19" spans="5:14">
-      <c r="E19" s="26"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="3">
         <v>0.7</v>
       </c>
@@ -2363,7 +2363,7 @@
       </c>
     </row>
     <row r="20" spans="5:14">
-      <c r="E20" s="26"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="3">
         <v>1</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
     </row>
     <row r="21" spans="5:14">
-      <c r="E21" s="27"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="1">
         <v>1.5</v>
       </c>
@@ -2423,39 +2423,39 @@
       </c>
     </row>
     <row r="22" spans="5:14">
-      <c r="E22" s="25">
+      <c r="E22" s="31">
         <v>5</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
       </c>
       <c r="G22" s="10">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="H22" s="10">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="I22" s="10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="10">
         <v>0.45</v>
       </c>
       <c r="K22" s="10">
-        <v>0.21</v>
+        <v>0.41</v>
       </c>
       <c r="L22" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="M22" s="10">
-        <v>0.19</v>
+        <v>0.59</v>
       </c>
       <c r="N22" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="23" spans="5:14">
-      <c r="E23" s="26"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="3">
         <v>0.3</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="24" spans="5:14">
-      <c r="E24" s="26"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="3">
         <v>0.5</v>
       </c>
@@ -2515,12 +2515,12 @@
       </c>
     </row>
     <row r="25" spans="5:14">
-      <c r="E25" s="26"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="3">
         <v>0.7</v>
       </c>
       <c r="G25" s="12">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -2545,7 +2545,7 @@
       </c>
     </row>
     <row r="26" spans="5:14">
-      <c r="E26" s="26"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="3">
         <v>1</v>
       </c>
@@ -2575,7 +2575,7 @@
       </c>
     </row>
     <row r="27" spans="5:14">
-      <c r="E27" s="27"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="1">
         <v>1.5</v>
       </c>
